--- a/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
+++ b/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
+++ b/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
+++ b/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,14 +901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -896,14 +939,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -912,13 +977,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普生物科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普生物科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
+++ b/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.09</v>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
+++ b/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -566,6 +583,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016470</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016471</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1354,138 +1575,6 @@
       </c>
       <c r="H11" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0704</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0704</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1560,26 +1649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0704</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1598,26 +1687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0704</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1626,6 +1715,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
+++ b/数据整理/stocks/其他/MRNA-莫德纳公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.86</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -583,6 +600,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富纳斯达克生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016470</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016471</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -786,7 +1045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1146,7 +1405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1575,138 +1834,6 @@
       </c>
       <c r="H11" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0704</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0704</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1868,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1781,26 +1908,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0704</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1819,26 +1946,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0704</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1847,6 +1974,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
